--- a/output/3Y_P27_KFSDIV.xlsx
+++ b/output/3Y_P27_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5636</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.1788</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.5668</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.962</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2659</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.4103</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.3976</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.9013</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3527</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8804</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6268</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3636</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8711</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1252</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1934</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1176</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3311</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3637</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6447</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.486</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.1958</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4264</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>17.107</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.8894</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4004</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3877</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6367</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.0061</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.835</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.4216</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.2404</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.382</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>11.9583</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.2036</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9136</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.4338</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9657</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5636</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.1788</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.5668</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.962</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2659</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.4103</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.3976</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.9013</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3527</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8804</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6268</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3636</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8711</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1252</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1934</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1176</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3311</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3637</v>
@@ -3839,10 +3842,10 @@
         <v>204579.3949</v>
       </c>
       <c r="K19" s="1">
-        <v>150090.4449</v>
+        <v>150105.5022</v>
       </c>
       <c r="L19" s="1">
-        <v>13.5085</v>
+        <v>13.5098</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6447</v>
@@ -3892,10 +3895,10 @@
         <v>206116.555</v>
       </c>
       <c r="K20" s="1">
-        <v>159766.8889</v>
+        <v>159781.9462</v>
       </c>
       <c r="L20" s="1">
-        <v>13.6095</v>
+        <v>13.6108</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.486</v>
@@ -3945,10 +3948,10 @@
         <v>237522.9194</v>
       </c>
       <c r="K21" s="1">
-        <v>178264.9432</v>
+        <v>178280.0006</v>
       </c>
       <c r="L21" s="1">
-        <v>13.7127</v>
+        <v>13.7139</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.1958</v>
@@ -3998,10 +4001,10 @@
         <v>256690.1792</v>
       </c>
       <c r="K22" s="1">
-        <v>177346.4849</v>
+        <v>177365.2121</v>
       </c>
       <c r="L22" s="1">
-        <v>13.7044</v>
+        <v>13.7059</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4264</v>
@@ -4051,10 +4054,10 @@
         <v>269677.6719</v>
       </c>
       <c r="K23" s="1">
-        <v>178182.5636</v>
+        <v>178201.2908</v>
       </c>
       <c r="L23" s="1">
-        <v>13.7145</v>
+        <v>13.7159</v>
       </c>
       <c r="M23" s="1">
         <v>0.75</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>17.107</v>
@@ -4104,10 +4107,10 @@
         <v>297534.1713</v>
       </c>
       <c r="K24" s="1">
-        <v>185219.8228</v>
+        <v>185238.55</v>
       </c>
       <c r="L24" s="1">
-        <v>13.8019</v>
+        <v>13.8033</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.8894</v>
@@ -4157,10 +4160,10 @@
         <v>304604.5617</v>
       </c>
       <c r="K25" s="1">
-        <v>186108.5981</v>
+        <v>186127.3252</v>
       </c>
       <c r="L25" s="1">
-        <v>13.8148</v>
+        <v>13.8162</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4004</v>
@@ -4210,10 +4213,10 @@
         <v>319728.8377</v>
       </c>
       <c r="K26" s="1">
-        <v>199086.4963</v>
+        <v>199105.2235</v>
       </c>
       <c r="L26" s="1">
-        <v>13.9822</v>
+        <v>13.9835</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3877</v>
@@ -4263,10 +4266,10 @@
         <v>314223.2955</v>
       </c>
       <c r="K27" s="1">
-        <v>216102.9603</v>
+        <v>216121.6875</v>
       </c>
       <c r="L27" s="1">
-        <v>14.1483</v>
+        <v>14.1496</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6367</v>
@@ -4316,10 +4319,10 @@
         <v>311431.85</v>
       </c>
       <c r="K28" s="1">
-        <v>241642.5066</v>
+        <v>241661.2338</v>
       </c>
       <c r="L28" s="1">
-        <v>14.2726</v>
+        <v>14.2737</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.0061</v>
@@ -4369,10 +4372,10 @@
         <v>291262.1689</v>
       </c>
       <c r="K29" s="1">
-        <v>264422.9389</v>
+        <v>264441.6661</v>
       </c>
       <c r="L29" s="1">
-        <v>14.3057</v>
+        <v>14.3067</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.835</v>
@@ -4422,10 +4425,10 @@
         <v>327262.932</v>
       </c>
       <c r="K30" s="1">
-        <v>304662.4669</v>
+        <v>304681.1941</v>
       </c>
       <c r="L30" s="1">
-        <v>14.1234</v>
+        <v>14.1243</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.4216</v>
@@ -4475,10 +4478,10 @@
         <v>349560.4123</v>
       </c>
       <c r="K31" s="1">
-        <v>296787.0638</v>
+        <v>296837.2638</v>
       </c>
       <c r="L31" s="1">
-        <v>14.1304</v>
+        <v>14.1328</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.2404</v>
@@ -4528,10 +4531,10 @@
         <v>334987.7093</v>
       </c>
       <c r="K32" s="1">
-        <v>294480.373</v>
+        <v>294539.7834</v>
       </c>
       <c r="L32" s="1">
-        <v>14.128</v>
+        <v>14.1308</v>
       </c>
       <c r="M32" s="1">
         <v>0.4</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.382</v>
@@ -4581,10 +4584,10 @@
         <v>332254.487</v>
       </c>
       <c r="K33" s="1">
-        <v>329191.7446</v>
+        <v>329251.1551</v>
       </c>
       <c r="L33" s="1">
-        <v>14.032</v>
+        <v>14.0345</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>11.9583</v>
@@ -4634,10 +4637,10 @@
         <v>331184.9182</v>
       </c>
       <c r="K34" s="1">
-        <v>359410.8604</v>
+        <v>359470.2709</v>
       </c>
       <c r="L34" s="1">
-        <v>13.8791</v>
+        <v>13.8814</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.2036</v>
@@ -4687,10 +4690,10 @@
         <v>347869.8419</v>
       </c>
       <c r="K35" s="1">
-        <v>380443.6992</v>
+        <v>380503.1096</v>
       </c>
       <c r="L35" s="1">
-        <v>13.7587</v>
+        <v>13.7608</v>
       </c>
       <c r="M35" s="1">
         <v>0.4</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9136</v>
@@ -4740,10 +4743,10 @@
         <v>387592.8817</v>
       </c>
       <c r="K36" s="1">
-        <v>383687.6678</v>
+        <v>383747.0783</v>
       </c>
       <c r="L36" s="1">
-        <v>13.7441</v>
+        <v>13.7463</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.4338</v>
@@ -4793,10 +4796,10 @@
         <v>411690.3227</v>
       </c>
       <c r="K37" s="1">
-        <v>373866.8337</v>
+        <v>373965.4834</v>
       </c>
       <c r="L37" s="1">
-        <v>13.7666</v>
+        <v>13.7703</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9657</v>
@@ -4846,10 +4849,10 @@
         <v>409147.8259</v>
       </c>
       <c r="K38" s="1">
-        <v>369752.9502</v>
+        <v>369868.0424</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7701</v>
+        <v>13.7744</v>
       </c>
       <c r="M38" s="1">
         <v>0.3</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5636</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.1788</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.5668</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.962</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2659</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.4103</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.3976</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.9013</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3527</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8804</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6268</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3636</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8711</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1252</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1934</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1176</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3311</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3637</v>
@@ -5879,10 +5882,10 @@
         <v>205512.0206</v>
       </c>
       <c r="K19" s="1">
-        <v>156480.5868</v>
+        <v>156494.4291</v>
       </c>
       <c r="L19" s="1">
-        <v>13.5287</v>
+        <v>13.5299</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6447</v>
@@ -5932,10 +5935,10 @@
         <v>206677.9345</v>
       </c>
       <c r="K20" s="1">
-        <v>167030.5283</v>
+        <v>167044.3706</v>
       </c>
       <c r="L20" s="1">
-        <v>13.6331</v>
+        <v>13.6342</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.486</v>
@@ -5985,10 +5988,10 @@
         <v>239045.656</v>
       </c>
       <c r="K21" s="1">
-        <v>186840.8693</v>
+        <v>186854.7117</v>
       </c>
       <c r="L21" s="1">
-        <v>13.7364</v>
+        <v>13.7374</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.1958</v>
@@ -6038,10 +6041,10 @@
         <v>258661.7061</v>
       </c>
       <c r="K22" s="1">
-        <v>186412.9926</v>
+        <v>186428.5446</v>
       </c>
       <c r="L22" s="1">
-        <v>13.7328</v>
+        <v>13.7339</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4264</v>
@@ -6091,10 +6094,10 @@
         <v>271801.1781</v>
       </c>
       <c r="K23" s="1">
-        <v>187851.6429</v>
+        <v>187867.1949</v>
       </c>
       <c r="L23" s="1">
-        <v>13.749</v>
+        <v>13.7501</v>
       </c>
       <c r="M23" s="1">
         <v>0.75</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>17.107</v>
@@ -6144,10 +6147,10 @@
         <v>300601.4273</v>
       </c>
       <c r="K24" s="1">
-        <v>195842.5238</v>
+        <v>195858.0758</v>
       </c>
       <c r="L24" s="1">
-        <v>13.842</v>
+        <v>13.8431</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.8894</v>
@@ -6197,10 +6200,10 @@
         <v>307502.4408</v>
       </c>
       <c r="K25" s="1">
-        <v>197398.8258</v>
+        <v>197414.3778</v>
       </c>
       <c r="L25" s="1">
-        <v>13.863</v>
+        <v>13.8641</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4004</v>
@@ -6250,10 +6253,10 @@
         <v>322897.3812</v>
       </c>
       <c r="K26" s="1">
-        <v>211764.497</v>
+        <v>211780.049</v>
       </c>
       <c r="L26" s="1">
-        <v>14.0352</v>
+        <v>14.0362</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3877</v>
@@ -6303,10 +6306,10 @@
         <v>316422.3165</v>
       </c>
       <c r="K27" s="1">
-        <v>230473.9041</v>
+        <v>230489.4561</v>
       </c>
       <c r="L27" s="1">
-        <v>14.2034</v>
+        <v>14.2044</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6367</v>
@@ -6356,10 +6359,10 @@
         <v>312795.9382</v>
       </c>
       <c r="K28" s="1">
-        <v>258313.3489</v>
+        <v>258328.9009</v>
       </c>
       <c r="L28" s="1">
-        <v>14.3251</v>
+        <v>14.326</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.0061</v>
@@ -6409,10 +6412,10 @@
         <v>290578.313</v>
       </c>
       <c r="K29" s="1">
-        <v>283312.9879</v>
+        <v>283328.5399</v>
       </c>
       <c r="L29" s="1">
-        <v>14.3545</v>
+        <v>14.3553</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.835</v>
@@ -6462,10 +6465,10 @@
         <v>328387.3047</v>
       </c>
       <c r="K30" s="1">
-        <v>327047.0819</v>
+        <v>327062.6339</v>
       </c>
       <c r="L30" s="1">
-        <v>14.1624</v>
+        <v>14.163</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.4216</v>
@@ -6515,10 +6518,10 @@
         <v>351585.6368</v>
       </c>
       <c r="K31" s="1">
-        <v>319413.0398</v>
+        <v>319459.1</v>
       </c>
       <c r="L31" s="1">
-        <v>14.1697</v>
+        <v>14.1717</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.2404</v>
@@ -6568,10 +6571,10 @@
         <v>335145.3948</v>
       </c>
       <c r="K32" s="1">
-        <v>317764.3443</v>
+        <v>317816.9876</v>
       </c>
       <c r="L32" s="1">
-        <v>14.1683</v>
+        <v>14.1706</v>
       </c>
       <c r="M32" s="1">
         <v>0.4</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.382</v>
@@ -6621,10 +6624,10 @@
         <v>331385.6479</v>
       </c>
       <c r="K33" s="1">
-        <v>355971.22</v>
+        <v>356023.8633</v>
       </c>
       <c r="L33" s="1">
-        <v>14.0657</v>
+        <v>14.0678</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>11.9583</v>
@@ -6674,10 +6677,10 @@
         <v>329594.5536</v>
       </c>
       <c r="K34" s="1">
-        <v>384623.8564</v>
+        <v>384676.4998</v>
       </c>
       <c r="L34" s="1">
-        <v>13.927</v>
+        <v>13.9289</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.2036</v>
@@ -6727,10 +6730,10 @@
         <v>346519.5666</v>
       </c>
       <c r="K35" s="1">
-        <v>394623.8564</v>
+        <v>394676.4998</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8699</v>
+        <v>13.8718</v>
       </c>
       <c r="M35" s="1">
         <v>0.4</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9136</v>
@@ -6780,10 +6783,10 @@
         <v>387462.6029</v>
       </c>
       <c r="K36" s="1">
-        <v>404623.8564</v>
+        <v>404676.4998</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8241</v>
+        <v>13.8259</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.4338</v>
@@ -6833,10 +6836,10 @@
         <v>412809.9679</v>
       </c>
       <c r="K37" s="1">
-        <v>408874.6487</v>
+        <v>408927.2921</v>
       </c>
       <c r="L37" s="1">
-        <v>13.8142</v>
+        <v>13.816</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9657</v>
@@ -6886,10 +6889,10 @@
         <v>409105.1632</v>
       </c>
       <c r="K38" s="1">
-        <v>405403.6958</v>
+        <v>405470.2119</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8173</v>
+        <v>13.8196</v>
       </c>
       <c r="M38" s="1">
         <v>0.3</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5636</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.1788</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.5668</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.962</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2659</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.4103</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.3976</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.9013</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3527</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8804</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6268</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3636</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8711</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1252</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1934</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1176</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3311</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3637</v>
@@ -7919,10 +7922,10 @@
         <v>206466.7524</v>
       </c>
       <c r="K19" s="1">
-        <v>163221.3585</v>
+        <v>163233.829</v>
       </c>
       <c r="L19" s="1">
-        <v>13.5501</v>
+        <v>13.5512</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6447</v>
@@ -7972,10 +7975,10 @@
         <v>207240.9241</v>
       </c>
       <c r="K20" s="1">
-        <v>174717.639</v>
+        <v>174730.1095</v>
       </c>
       <c r="L20" s="1">
-        <v>13.6578</v>
+        <v>13.6588</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.486</v>
@@ -8025,10 +8028,10 @@
         <v>240624.4926</v>
       </c>
       <c r="K21" s="1">
-        <v>195943.7809</v>
+        <v>195956.2514</v>
       </c>
       <c r="L21" s="1">
-        <v>13.761</v>
+        <v>13.7619</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.1958</v>
@@ -8078,10 +8081,10 @@
         <v>260716.6836</v>
       </c>
       <c r="K22" s="1">
-        <v>196070.296</v>
+        <v>196082.7665</v>
       </c>
       <c r="L22" s="1">
-        <v>13.7621</v>
+        <v>13.7629</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4264</v>
@@ -8131,10 +8134,10 @@
         <v>274017.966</v>
       </c>
       <c r="K23" s="1">
-        <v>198187.9558</v>
+        <v>198200.4263</v>
       </c>
       <c r="L23" s="1">
-        <v>13.7844</v>
+        <v>13.7853</v>
       </c>
       <c r="M23" s="1">
         <v>0.75</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>17.107</v>
@@ -8184,10 +8187,10 @@
         <v>303825.5381</v>
       </c>
       <c r="K24" s="1">
-        <v>207238.2627</v>
+        <v>207250.7331</v>
       </c>
       <c r="L24" s="1">
-        <v>13.883</v>
+        <v>13.8838</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.8894</v>
@@ -8237,10 +8240,10 @@
         <v>310544.6508</v>
       </c>
       <c r="K25" s="1">
-        <v>209555.9086</v>
+        <v>209568.3791</v>
       </c>
       <c r="L25" s="1">
-        <v>13.9122</v>
+        <v>13.913</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4004</v>
@@ -8290,10 +8293,10 @@
         <v>326228.2658</v>
       </c>
       <c r="K26" s="1">
-        <v>225462.7043</v>
+        <v>225475.1747</v>
       </c>
       <c r="L26" s="1">
-        <v>14.0891</v>
+        <v>14.0898</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3877</v>
@@ -8343,10 +8346,10 @@
         <v>318705.7638</v>
       </c>
       <c r="K27" s="1">
-        <v>246051.6693</v>
+        <v>246064.1397</v>
       </c>
       <c r="L27" s="1">
-        <v>14.2593</v>
+        <v>14.26</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6367</v>
@@ -8396,10 +8399,10 @@
         <v>314174.2567</v>
       </c>
       <c r="K28" s="1">
-        <v>276437.5748</v>
+        <v>276450.0452</v>
       </c>
       <c r="L28" s="1">
-        <v>14.3781</v>
+        <v>14.3787</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.0061</v>
@@ -8449,10 +8452,10 @@
         <v>289729.2658</v>
       </c>
       <c r="K29" s="1">
-        <v>303910.0171</v>
+        <v>303922.4876</v>
       </c>
       <c r="L29" s="1">
-        <v>14.4037</v>
+        <v>14.4042</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.835</v>
@@ -8502,10 +8505,10 @@
         <v>328215.3328</v>
       </c>
       <c r="K30" s="1">
-        <v>329765.6258</v>
+        <v>329778.0963</v>
       </c>
       <c r="L30" s="1">
-        <v>14.2858</v>
+        <v>14.2863</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.4216</v>
@@ -8555,10 +8558,10 @@
         <v>352336.6761</v>
       </c>
       <c r="K31" s="1">
-        <v>345612.2744</v>
+        <v>345624.7448</v>
       </c>
       <c r="L31" s="1">
-        <v>14.2658</v>
+        <v>14.2663</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.2404</v>
@@ -8608,10 +8611,10 @@
         <v>333844.7158</v>
       </c>
       <c r="K32" s="1">
-        <v>344769.2752</v>
+        <v>344785.1118</v>
       </c>
       <c r="L32" s="1">
-        <v>14.2654</v>
+        <v>14.266</v>
       </c>
       <c r="M32" s="1">
         <v>0.4</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.382</v>
@@ -8661,10 +8664,10 @@
         <v>330161.2368</v>
       </c>
       <c r="K33" s="1">
-        <v>369257.036</v>
+        <v>369272.8725</v>
       </c>
       <c r="L33" s="1">
-        <v>14.1945</v>
+        <v>14.1951</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>11.9583</v>
@@ -8714,10 +8717,10 @@
         <v>328450.4608</v>
       </c>
       <c r="K34" s="1">
-        <v>387957.6092</v>
+        <v>387973.4457</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0966</v>
+        <v>14.0972</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.2036</v>
@@ -8767,10 +8770,10 @@
         <v>345352.006</v>
       </c>
       <c r="K35" s="1">
-        <v>397957.6092</v>
+        <v>397973.4457</v>
       </c>
       <c r="L35" s="1">
-        <v>14.0344</v>
+        <v>14.035</v>
       </c>
       <c r="M35" s="1">
         <v>0.4</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9136</v>
@@ -8820,10 +8823,10 @@
         <v>386192.6008</v>
       </c>
       <c r="K36" s="1">
-        <v>407957.6092</v>
+        <v>407973.4457</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9838</v>
+        <v>13.9843</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.4338</v>
@@ -8873,10 +8876,10 @@
         <v>412066.6119</v>
       </c>
       <c r="K37" s="1">
-        <v>428165.7281</v>
+        <v>428181.5647</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9307</v>
+        <v>13.9312</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9657</v>
@@ -8926,10 +8929,10 @@
         <v>407323.122</v>
       </c>
       <c r="K38" s="1">
-        <v>438165.7281</v>
+        <v>438181.5647</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9196</v>
+        <v>13.9201</v>
       </c>
       <c r="M38" s="1">
         <v>0.3</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5636</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.1788</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.5668</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.962</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2659</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.4103</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.3976</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.9013</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3527</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8804</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6268</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3636</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8711</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1252</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1934</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1176</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3311</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.3637</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.6447</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.486</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.1958</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4264</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>17.107</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.8894</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4004</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3877</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6367</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.0061</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.835</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.4216</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.2404</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.382</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>11.9583</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.2036</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9136</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.4338</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9657</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,13 +11048,13 @@
         <v>13.9866</v>
       </c>
       <c r="D3" s="1">
-        <v>13.7701</v>
+        <v>13.7744</v>
       </c>
       <c r="E3" s="1">
-        <v>13.8173</v>
+        <v>13.8196</v>
       </c>
       <c r="F3" s="1">
-        <v>13.9196</v>
+        <v>13.9201</v>
       </c>
       <c r="G3" s="1">
         <v>14.0497</v>
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>89646.77710000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9252</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1062</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.009</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9296</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.921</v>
       </c>
     </row>
   </sheetData>
